--- a/data/trans_dic/DC-Clase-trans_dic.xlsx
+++ b/data/trans_dic/DC-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1285537907478697</v>
+        <v>0.1271415798193677</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05646262940223786</v>
+        <v>0.05288292264809313</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07788157083385333</v>
+        <v>0.07994726875579274</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1525015610122534</v>
+        <v>0.1497508074850734</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1680582142510469</v>
+        <v>0.1695221214780641</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1466265725235721</v>
+        <v>0.1457395551879332</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09050135979882551</v>
+        <v>0.0918031068068314</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3051465292484876</v>
+        <v>0.3052383513542627</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1523610474717366</v>
+        <v>0.1565132144429079</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1043055718043733</v>
+        <v>0.1021092376686459</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.09142264365317855</v>
+        <v>0.09194404346231373</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2352300440134216</v>
+        <v>0.2334670497984318</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1968947031220881</v>
+        <v>0.1980561166367741</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1057645409709874</v>
+        <v>0.1060697845824694</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1397881388091693</v>
+        <v>0.1420971490144989</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2157383953797586</v>
+        <v>0.2150651457625998</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2605345440559492</v>
+        <v>0.2576774570148085</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2400875958954476</v>
+        <v>0.2385833304216509</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1605308611390452</v>
+        <v>0.1634994779322163</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3840562810452371</v>
+        <v>0.3841092565955845</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2072142957411308</v>
+        <v>0.2108992271631169</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1527633971550746</v>
+        <v>0.1530777324229261</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.136525131601989</v>
+        <v>0.1381336573591687</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2860539889556578</v>
+        <v>0.2858958913872376</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.05946885999257057</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1911262131652749</v>
+        <v>0.1911262131652748</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2948398236119562</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08572678403530976</v>
+        <v>0.08384933257649908</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06782263970523737</v>
+        <v>0.06647487010924501</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03667652640899446</v>
+        <v>0.03882994913222111</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1553783479132795</v>
+        <v>0.1564919919239937</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2520670246591188</v>
+        <v>0.2527566139064994</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1485435684470055</v>
+        <v>0.1502634706952803</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.132794652368737</v>
+        <v>0.1314134546437613</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3235333400446784</v>
+        <v>0.324594644840045</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1761720740002191</v>
+        <v>0.1763913869310763</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1107147031153115</v>
+        <v>0.1127004357933998</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09173763991780083</v>
+        <v>0.09257819023572585</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2456653337996404</v>
+        <v>0.245096179680773</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1516334295788649</v>
+        <v>0.1531567234427656</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1272147101987812</v>
+        <v>0.1265350249722789</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08960205003269288</v>
+        <v>0.09329812176538307</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2282215078530094</v>
+        <v>0.2298785373350272</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.341729560467708</v>
+        <v>0.3467515454448803</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2353337457347605</v>
+        <v>0.238993016981166</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2119509629820828</v>
+        <v>0.218751297241077</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4066211186110643</v>
+        <v>0.4107349566446026</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2353268560523191</v>
+        <v>0.2367993513759183</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1627006318198768</v>
+        <v>0.1646990021179047</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1409232721403925</v>
+        <v>0.1420656395165296</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2987095650065907</v>
+        <v>0.3018664247872416</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.08801583989110494</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2471120762624973</v>
+        <v>0.2471120762624972</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3042090957154029</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1698974295950098</v>
+        <v>0.1706261543470645</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09300398091212646</v>
+        <v>0.09077636351433303</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06474281717524578</v>
+        <v>0.0642238190194704</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.208257985708745</v>
+        <v>0.2103694070939899</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2324867282103031</v>
+        <v>0.2330412511773078</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1813200654801724</v>
+        <v>0.1778451126279802</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1855987327709999</v>
+        <v>0.1803890104501492</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3866626109295286</v>
+        <v>0.3933386336651695</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1948961888019326</v>
+        <v>0.1951128782391384</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1235348852177456</v>
+        <v>0.1241961259693408</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1027185819430139</v>
+        <v>0.1030239966452749</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2747523370580265</v>
+        <v>0.2699082250524542</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2396814686772926</v>
+        <v>0.2425076157437529</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1467686168586844</v>
+        <v>0.1483010872517563</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.115076299125075</v>
+        <v>0.1131436227945188</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2881858655183988</v>
+        <v>0.2875618242351042</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3792972880053833</v>
+        <v>0.3786936585365585</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2870224917571728</v>
+        <v>0.2843023200863533</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3232454956266483</v>
+        <v>0.3146914344226557</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5117348820896999</v>
+        <v>0.511454397004895</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.255622828329033</v>
+        <v>0.2603979739360621</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1748938621854833</v>
+        <v>0.1754006053542461</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1554740741157553</v>
+        <v>0.1546350528275827</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3382182010216159</v>
+        <v>0.338515664882502</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1328506298249473</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2926882673569263</v>
+        <v>0.2926882673569264</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1960475915547339</v>
+        <v>0.1960467681862779</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1117719440872462</v>
+        <v>0.1107423934620875</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08749453131954223</v>
+        <v>0.08763378281164015</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2084295262660571</v>
+        <v>0.2106390613747529</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.267681028702588</v>
+        <v>0.2698254412882478</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1868439166125096</v>
+        <v>0.1888686731280941</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.146132594099387</v>
+        <v>0.1447461181851129</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.340013902468683</v>
+        <v>0.3383400963205198</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2299591557619776</v>
+        <v>0.2293603494203237</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1480282424108247</v>
+        <v>0.1495144847048649</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1181959009767079</v>
+        <v>0.1164057001662649</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2737537274283083</v>
+        <v>0.2737991391940751</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2408309797724539</v>
+        <v>0.2409387944500919</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1524946058833211</v>
+        <v>0.1500115628878022</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1228080041204494</v>
+        <v>0.1244376860290085</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2609878992829386</v>
+        <v>0.2614241429600631</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3355693692182565</v>
+        <v>0.3396339545009083</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2492900006884381</v>
+        <v>0.251664557863487</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2000583382050508</v>
+        <v>0.1989797046568097</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3956271058204134</v>
+        <v>0.3970049889605008</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2676550565138183</v>
+        <v>0.2684966724309573</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1833636889096143</v>
+        <v>0.1840195856110506</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1486740471152914</v>
+        <v>0.1483135010190767</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3128181771990606</v>
+        <v>0.3146766608632954</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1622332799789437</v>
+        <v>0.1635119810168476</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06983217009702571</v>
+        <v>0.06950220199196332</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1081446279421337</v>
+        <v>0.1091635932808577</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2055325989497688</v>
+        <v>0.2041545319357572</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2393272191141971</v>
+        <v>0.2432368205883099</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2449717337710139</v>
+        <v>0.2449288755492216</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2008875637963855</v>
+        <v>0.1984128353525494</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4287109606824028</v>
+        <v>0.4286648522233379</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2197013930606233</v>
+        <v>0.2204251832590199</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1805022172010094</v>
+        <v>0.1838653008536637</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1646658850605794</v>
+        <v>0.1657020391161666</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3467230024409508</v>
+        <v>0.348271137532208</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2443367215054884</v>
+        <v>0.2488875766814163</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1210310501737236</v>
+        <v>0.123082135692915</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1617419567599748</v>
+        <v>0.1626818174115325</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2784029518335561</v>
+        <v>0.2753901479273216</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3144510407973458</v>
+        <v>0.3175181071738055</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3102271322301682</v>
+        <v>0.3123831930951575</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2626932487680991</v>
+        <v>0.2631411864719805</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4866991722694491</v>
+        <v>0.4857538081644784</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.276987985553648</v>
+        <v>0.2773872743904004</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2269450120289032</v>
+        <v>0.2317052758930577</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.209020148824182</v>
+        <v>0.2081785653247707</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3920074572256087</v>
+        <v>0.3962337760430975</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.1750635111546928</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.3604056139715723</v>
+        <v>0.3604056139715724</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.226268560389146</v>
@@ -1377,7 +1377,7 @@
         <v>0.1406565442017429</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.3051080279915457</v>
+        <v>0.3051080279915456</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.009438212086162493</v>
+        <v>0.009540837736067547</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01257166239551176</v>
+        <v>0.01250621752830235</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003355122705636456</v>
+        <v>0.003381840414203922</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.06137040677550104</v>
+        <v>0.05460743897302381</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2521443584939445</v>
+        <v>0.2503079230545626</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2274179131327604</v>
+        <v>0.2281232738781828</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1529592725987998</v>
+        <v>0.1531441194899986</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3292501983829542</v>
+        <v>0.329523465505879</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2075030114147303</v>
+        <v>0.2085007012466862</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1873115881237732</v>
+        <v>0.1885935344801623</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1222571275139042</v>
+        <v>0.1223306017851979</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2781674847871297</v>
+        <v>0.2768328912556563</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04270999725103072</v>
+        <v>0.04575662273929674</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06747037699075245</v>
+        <v>0.06433669375624643</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03234101633603251</v>
+        <v>0.03045698805262084</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1817374602140567</v>
+        <v>0.1788438955102366</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3008354435612325</v>
+        <v>0.3028143634950122</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2808557504806487</v>
+        <v>0.282452430901906</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2013472437580719</v>
+        <v>0.2008278392587601</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3928981960169178</v>
+        <v>0.3929124081222153</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2480798141777914</v>
+        <v>0.2513533054528917</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2357601534342101</v>
+        <v>0.2336335532356337</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1616393490631824</v>
+        <v>0.1615456484269263</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.336992182914002</v>
+        <v>0.3393790349294709</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1631516542458955</v>
+        <v>0.1611128573799401</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09383835197524951</v>
+        <v>0.09356433859390699</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08476391949287365</v>
+        <v>0.08470131007133135</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2002463642666339</v>
+        <v>0.1989740325488627</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.263633404432813</v>
+        <v>0.2643753870806935</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2243407854256171</v>
+        <v>0.2235324032211455</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1704750062822766</v>
+        <v>0.1699354647668418</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3723958625228051</v>
+        <v>0.3745555659493512</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.21790149076449</v>
+        <v>0.2176632587353058</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1622580478742289</v>
+        <v>0.1634771804604007</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1319605255551126</v>
+        <v>0.1305753910180268</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2919709678237609</v>
+        <v>0.2928875219811552</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1885010192615669</v>
+        <v>0.1884658277762849</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1157823467092588</v>
+        <v>0.1154294291182331</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1049515337033551</v>
+        <v>0.1058279882502443</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2291386288554219</v>
+        <v>0.2272650329323671</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2948335166021334</v>
+        <v>0.2942056680014055</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2525626527970383</v>
+        <v>0.2524702560292396</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1974487176591607</v>
+        <v>0.1968011278753495</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4003966002280275</v>
+        <v>0.4015411547328972</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2376984644670169</v>
+        <v>0.2372730017961571</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1810694550045734</v>
+        <v>0.1817778164409076</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1504488398935265</v>
+        <v>0.1483110394327019</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3139446592867584</v>
+        <v>0.3140665197928643</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>60906</v>
+        <v>60237</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>24686</v>
+        <v>23121</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>33418</v>
+        <v>34305</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>83970</v>
+        <v>82455</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>51540</v>
+        <v>51989</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>46107</v>
+        <v>45828</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>31409</v>
+        <v>31861</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>149037</v>
+        <v>149082</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>118911</v>
+        <v>122152</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>78403</v>
+        <v>76752</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>70957</v>
+        <v>71362</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>244411</v>
+        <v>242579</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>93284</v>
+        <v>93834</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>46241</v>
+        <v>46375</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>59982</v>
+        <v>60973</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>118789</v>
+        <v>118419</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>79901</v>
+        <v>79025</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>75497</v>
+        <v>75023</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>55713</v>
+        <v>56743</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>187577</v>
+        <v>187603</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>161722</v>
+        <v>164598</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>114827</v>
+        <v>115063</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>105964</v>
+        <v>107212</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>297218</v>
+        <v>297054</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>31456</v>
+        <v>30767</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>28404</v>
+        <v>27839</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13835</v>
+        <v>14648</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>75081</v>
+        <v>75619</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>93735</v>
+        <v>93991</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>50209</v>
+        <v>50791</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>49436</v>
+        <v>48922</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>136901</v>
+        <v>137350</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>130156</v>
+        <v>130318</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>83790</v>
+        <v>85293</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>68757</v>
+        <v>69387</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>222660</v>
+        <v>222144</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>55639</v>
+        <v>56198</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>53277</v>
+        <v>52992</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>33800</v>
+        <v>35195</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>110279</v>
+        <v>111080</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>127077</v>
+        <v>128945</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>79545</v>
+        <v>80782</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>78904</v>
+        <v>81435</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>172059</v>
+        <v>173800</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>173859</v>
+        <v>174947</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>123133</v>
+        <v>124646</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>105622</v>
+        <v>106478</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>270737</v>
+        <v>273598</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>92150</v>
+        <v>92546</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>58538</v>
+        <v>57136</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>33790</v>
+        <v>33519</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>98217</v>
+        <v>99213</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>39007</v>
+        <v>39100</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>47167</v>
+        <v>46263</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>30832</v>
+        <v>29967</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>72498</v>
+        <v>73750</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>138410</v>
+        <v>138564</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>109890</v>
+        <v>110478</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>70674</v>
+        <v>70884</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>181092</v>
+        <v>177899</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>130001</v>
+        <v>131533</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>92378</v>
+        <v>93343</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>60060</v>
+        <v>59051</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>135912</v>
+        <v>135618</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>63639</v>
+        <v>63538</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>74663</v>
+        <v>73955</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>53699</v>
+        <v>52277</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>95949</v>
+        <v>95896</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>181536</v>
+        <v>184927</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>155576</v>
+        <v>156027</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>106972</v>
+        <v>106394</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>222923</v>
+        <v>223119</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>242772</v>
+        <v>242771</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>129545</v>
+        <v>128351</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>100587</v>
+        <v>100747</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>235910</v>
+        <v>238410</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>191201</v>
+        <v>192732</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>143245</v>
+        <v>144797</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>120687</v>
+        <v>119542</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>292824</v>
+        <v>291382</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>449023</v>
+        <v>447854</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>285053</v>
+        <v>287915</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>233498</v>
+        <v>229961</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>545606</v>
+        <v>545696</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>298229</v>
+        <v>298363</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>176743</v>
+        <v>173865</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>141185</v>
+        <v>143058</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>295397</v>
+        <v>295891</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>239692</v>
+        <v>242595</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>191120</v>
+        <v>192940</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>165223</v>
+        <v>164333</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>340718</v>
+        <v>341905</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>522629</v>
+        <v>524272</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>353097</v>
+        <v>354360</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>293708</v>
+        <v>292995</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>623464</v>
+        <v>627168</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>56872</v>
+        <v>57320</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>35656</v>
+        <v>35488</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>67126</v>
+        <v>67758</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>116735</v>
+        <v>115952</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>136118</v>
+        <v>138341</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>186551</v>
+        <v>186519</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>148304</v>
+        <v>146477</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>356195</v>
+        <v>356156</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>201973</v>
+        <v>202638</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>229620</v>
+        <v>233898</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>223773</v>
+        <v>225181</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>485001</v>
+        <v>487167</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>85653</v>
+        <v>87249</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>61798</v>
+        <v>62845</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>100394</v>
+        <v>100978</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>158123</v>
+        <v>156412</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>178845</v>
+        <v>180589</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>236245</v>
+        <v>237887</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>193932</v>
+        <v>194262</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>404374</v>
+        <v>403589</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>254637</v>
+        <v>255004</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>288701</v>
+        <v>294756</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>284048</v>
+        <v>282904</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>548346</v>
+        <v>554257</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2814</v>
+        <v>2845</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3355</v>
+        <v>3338</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>963</v>
+        <v>971</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>14559</v>
+        <v>12954</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>314868</v>
+        <v>312575</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>252286</v>
+        <v>253069</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>165506</v>
+        <v>165706</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>277980</v>
+        <v>278210</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>320999</v>
+        <v>322542</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>257784</v>
+        <v>259549</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>167391</v>
+        <v>167491</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>300841</v>
+        <v>299397</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>12736</v>
+        <v>13645</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>18007</v>
+        <v>17170</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9287</v>
+        <v>8746</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>43113</v>
+        <v>42427</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>375671</v>
+        <v>378142</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>311568</v>
+        <v>313339</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>217863</v>
+        <v>217301</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>331716</v>
+        <v>331728</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>383770</v>
+        <v>388834</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>324461</v>
+        <v>321534</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>221312</v>
+        <v>221183</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>364460</v>
+        <v>367041</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>533537</v>
+        <v>526870</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>321106</v>
+        <v>320169</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>286987</v>
+        <v>286775</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>689343</v>
+        <v>684963</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>890586</v>
+        <v>893093</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>796438</v>
+        <v>793568</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>602049</v>
+        <v>600143</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1353805</v>
+        <v>1361657</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1448678</v>
+        <v>1447094</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1131269</v>
+        <v>1139769</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>912813</v>
+        <v>903232</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>2066532</v>
+        <v>2073020</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>616434</v>
+        <v>616319</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>396197</v>
+        <v>394989</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>355337</v>
+        <v>358304</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>788804</v>
+        <v>782354</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>995984</v>
+        <v>993863</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>896629</v>
+        <v>896301</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>697309</v>
+        <v>695022</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1455599</v>
+        <v>1459760</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1580294</v>
+        <v>1577465</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1262423</v>
+        <v>1267361</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1040702</v>
+        <v>1025915</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>2222059</v>
+        <v>2222922</v>
       </c>
     </row>
     <row r="32">
